--- a/src/test/resources/TestData/StandardDataTable.xlsx
+++ b/src/test/resources/TestData/StandardDataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Latest\NAUTFramework_Source\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10675365\Desktop\Repo\NAUTFramework_Source\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F17199-7304-4C68-8918-C8D2CFCC3B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD01F62-C564-4A45-948F-74C529326158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -1759,7 +1759,7 @@
         <v>107</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>24</v>

--- a/src/test/resources/TestData/StandardDataTable.xlsx
+++ b/src/test/resources/TestData/StandardDataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10675365\Desktop\Repo\NAUTFramework_Source\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD01F62-C564-4A45-948F-74C529326158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC98C36-5E3F-4C89-9A15-CCA45FCAFF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -885,7 +885,7 @@
   <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,7 +1759,7 @@
         <v>107</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>24</v>
@@ -1955,14 +1955,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="48672a69-1b10-402e-ae56-f71fcf9b7def" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c3558c9d-956c-4575-ab6e-e0ad20b175a0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2203,21 +2201,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="48672a69-1b10-402e-ae56-f71fcf9b7def" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c3558c9d-956c-4575-ab6e-e0ad20b175a0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BE35CEE-1ACD-49D9-93D4-870D64B29774}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{593DCF9B-241D-44E8-8D59-5F1F538014F3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="48672a69-1b10-402e-ae56-f71fcf9b7def"/>
-    <ds:schemaRef ds:uri="c3558c9d-956c-4575-ab6e-e0ad20b175a0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2242,9 +2239,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{593DCF9B-241D-44E8-8D59-5F1F538014F3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BE35CEE-1ACD-49D9-93D4-870D64B29774}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="48672a69-1b10-402e-ae56-f71fcf9b7def"/>
+    <ds:schemaRef ds:uri="c3558c9d-956c-4575-ab6e-e0ad20b175a0"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>